--- a/Examples/Worldwide_Tax_Summaries_Online/Output/20210522/彙總表_20210522.xlsx
+++ b/Examples/Worldwide_Tax_Summaries_Online/Output/20210522/彙總表_20210522.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
-    <x:t>RPA Execution time : 05/22/2021 13:49:37</x:t>
+    <x:t>RPA Execution time : 05/22/2021 15:54:52</x:t>
   </x:si>
   <x:si>
     <x:t>Data From WW</x:t>
